--- a/workflow-cgi/workflow-Genotype/0-scanner-labid/3000142914.xlsx
+++ b/workflow-cgi/workflow-Genotype/0-scanner-labid/3000142914.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27211"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thokall/Documents/SeqDB-documentation/workflow-cgi/workflow-Genotype/0-scanner-labid/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="210" windowWidth="24915" windowHeight="12015"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="24920" windowHeight="12020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,6 +20,14 @@
     <definedName name="NRM_CGI_3000142914_20200123" localSheetId="0">Sheet1!$A$1:$D$97</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="194">
   <si>
     <t>Position</t>
   </si>
@@ -333,286 +346,289 @@
     <t>H12</t>
   </si>
   <si>
-    <t>s3069</t>
-  </si>
-  <si>
-    <t>s3059</t>
-  </si>
-  <si>
-    <t>s3046</t>
-  </si>
-  <si>
-    <t>s3036</t>
-  </si>
-  <si>
-    <t>s3027</t>
-  </si>
-  <si>
-    <t>s3018</t>
-  </si>
-  <si>
-    <t>s3007</t>
-  </si>
-  <si>
-    <t>s2996</t>
-  </si>
-  <si>
-    <t>s2987</t>
-  </si>
-  <si>
-    <t>s2978</t>
-  </si>
-  <si>
-    <t>s2969</t>
-  </si>
-  <si>
-    <t>s2957</t>
-  </si>
-  <si>
-    <t>s3068</t>
-  </si>
-  <si>
-    <t>s3058</t>
-  </si>
-  <si>
-    <t>s3045</t>
-  </si>
-  <si>
-    <t>s3035</t>
-  </si>
-  <si>
-    <t>s3025</t>
-  </si>
-  <si>
-    <t>s3015</t>
-  </si>
-  <si>
-    <t>s3006</t>
-  </si>
-  <si>
-    <t>s2995</t>
-  </si>
-  <si>
-    <t>s2986</t>
-  </si>
-  <si>
-    <t>s2977</t>
-  </si>
-  <si>
-    <t>s2967</t>
-  </si>
-  <si>
-    <t>s2956</t>
-  </si>
-  <si>
-    <t>s3067</t>
-  </si>
-  <si>
-    <t>s3056</t>
-  </si>
-  <si>
-    <t>s3044</t>
-  </si>
-  <si>
-    <t>s3034</t>
-  </si>
-  <si>
-    <t>s3024</t>
-  </si>
-  <si>
-    <t>s3014</t>
-  </si>
-  <si>
-    <t>s3005</t>
-  </si>
-  <si>
-    <t>s2994</t>
-  </si>
-  <si>
-    <t>s2985</t>
-  </si>
-  <si>
-    <t>s2975</t>
-  </si>
-  <si>
-    <t>s2966</t>
-  </si>
-  <si>
-    <t>s2955</t>
-  </si>
-  <si>
-    <t>s3064</t>
-  </si>
-  <si>
-    <t>s3055</t>
-  </si>
-  <si>
-    <t>s3043</t>
-  </si>
-  <si>
-    <t>s3033</t>
-  </si>
-  <si>
-    <t>s3023</t>
-  </si>
-  <si>
-    <t>s3013</t>
-  </si>
-  <si>
-    <t>s3004</t>
-  </si>
-  <si>
-    <t>s2993</t>
-  </si>
-  <si>
-    <t>s2984</t>
-  </si>
-  <si>
-    <t>s2974</t>
-  </si>
-  <si>
-    <t>s2965</t>
-  </si>
-  <si>
-    <t>s2954</t>
-  </si>
-  <si>
-    <t>s3063</t>
-  </si>
-  <si>
-    <t>s3054</t>
-  </si>
-  <si>
-    <t>s3042</t>
-  </si>
-  <si>
-    <t>s3032</t>
-  </si>
-  <si>
-    <t>s3020</t>
-  </si>
-  <si>
-    <t>s3012</t>
-  </si>
-  <si>
-    <t>s3003</t>
-  </si>
-  <si>
-    <t>s2992</t>
-  </si>
-  <si>
-    <t>s2982</t>
-  </si>
-  <si>
-    <t>s2964</t>
-  </si>
-  <si>
-    <t>s2953</t>
-  </si>
-  <si>
-    <t>s3062</t>
-  </si>
-  <si>
-    <t>s3053</t>
-  </si>
-  <si>
-    <t>s3041</t>
-  </si>
-  <si>
-    <t>s3031</t>
-  </si>
-  <si>
-    <t>s3019</t>
-  </si>
-  <si>
-    <t>s3011</t>
-  </si>
-  <si>
-    <t>s3000</t>
-  </si>
-  <si>
-    <t>s2991</t>
-  </si>
-  <si>
-    <t>s2981</t>
-  </si>
-  <si>
-    <t>s2972</t>
-  </si>
-  <si>
-    <t>s2963</t>
-  </si>
-  <si>
-    <t>s2952</t>
-  </si>
-  <si>
-    <t>s3061</t>
-  </si>
-  <si>
-    <t>s3049</t>
-  </si>
-  <si>
-    <t>s3040</t>
-  </si>
-  <si>
-    <t>s3029</t>
-  </si>
-  <si>
-    <t>s3010</t>
-  </si>
-  <si>
-    <t>s2999</t>
-  </si>
-  <si>
-    <t>s2990</t>
-  </si>
-  <si>
-    <t>s2980</t>
-  </si>
-  <si>
-    <t>s2971</t>
-  </si>
-  <si>
-    <t>s2962</t>
-  </si>
-  <si>
-    <t>s2951</t>
-  </si>
-  <si>
-    <t>s3060</t>
-  </si>
-  <si>
-    <t>s3047</t>
-  </si>
-  <si>
-    <t>s3037</t>
-  </si>
-  <si>
-    <t>s3028</t>
-  </si>
-  <si>
-    <t>s3017</t>
-  </si>
-  <si>
-    <t>s3008</t>
-  </si>
-  <si>
-    <t>s2997</t>
-  </si>
-  <si>
-    <t>s2989</t>
-  </si>
-  <si>
-    <t>s2979</t>
-  </si>
-  <si>
-    <t>s2970</t>
-  </si>
-  <si>
-    <t>s2961</t>
-  </si>
-  <si>
-    <t>s2950</t>
+    <t>Lab ID</t>
+  </si>
+  <si>
+    <t>S3069</t>
+  </si>
+  <si>
+    <t>S3059</t>
+  </si>
+  <si>
+    <t>S3046</t>
+  </si>
+  <si>
+    <t>S3036</t>
+  </si>
+  <si>
+    <t>S3027</t>
+  </si>
+  <si>
+    <t>S3018</t>
+  </si>
+  <si>
+    <t>S3007</t>
+  </si>
+  <si>
+    <t>S2996</t>
+  </si>
+  <si>
+    <t>S2987</t>
+  </si>
+  <si>
+    <t>S2978</t>
+  </si>
+  <si>
+    <t>S2969</t>
+  </si>
+  <si>
+    <t>S2957</t>
+  </si>
+  <si>
+    <t>S3068</t>
+  </si>
+  <si>
+    <t>S3058</t>
+  </si>
+  <si>
+    <t>S3045</t>
+  </si>
+  <si>
+    <t>S3035</t>
+  </si>
+  <si>
+    <t>S3025</t>
+  </si>
+  <si>
+    <t>S3015</t>
+  </si>
+  <si>
+    <t>S3006</t>
+  </si>
+  <si>
+    <t>S2995</t>
+  </si>
+  <si>
+    <t>S2986</t>
+  </si>
+  <si>
+    <t>S2977</t>
+  </si>
+  <si>
+    <t>S2967</t>
+  </si>
+  <si>
+    <t>S2956</t>
+  </si>
+  <si>
+    <t>S3067</t>
+  </si>
+  <si>
+    <t>S3056</t>
+  </si>
+  <si>
+    <t>S3044</t>
+  </si>
+  <si>
+    <t>S3034</t>
+  </si>
+  <si>
+    <t>S3024</t>
+  </si>
+  <si>
+    <t>S3014</t>
+  </si>
+  <si>
+    <t>S3005</t>
+  </si>
+  <si>
+    <t>S2994</t>
+  </si>
+  <si>
+    <t>S2985</t>
+  </si>
+  <si>
+    <t>S2975</t>
+  </si>
+  <si>
+    <t>S2966</t>
+  </si>
+  <si>
+    <t>S2955</t>
+  </si>
+  <si>
+    <t>S3064</t>
+  </si>
+  <si>
+    <t>S3055</t>
+  </si>
+  <si>
+    <t>S3043</t>
+  </si>
+  <si>
+    <t>S3033</t>
+  </si>
+  <si>
+    <t>S3023</t>
+  </si>
+  <si>
+    <t>S3013</t>
+  </si>
+  <si>
+    <t>S3004</t>
+  </si>
+  <si>
+    <t>S2993</t>
+  </si>
+  <si>
+    <t>S2984</t>
+  </si>
+  <si>
+    <t>S2974</t>
+  </si>
+  <si>
+    <t>S2965</t>
+  </si>
+  <si>
+    <t>S2954</t>
+  </si>
+  <si>
+    <t>S3063</t>
+  </si>
+  <si>
+    <t>S3054</t>
+  </si>
+  <si>
+    <t>S3042</t>
+  </si>
+  <si>
+    <t>S3032</t>
+  </si>
+  <si>
+    <t>S3020</t>
+  </si>
+  <si>
+    <t>S3012</t>
+  </si>
+  <si>
+    <t>S3003</t>
+  </si>
+  <si>
+    <t>S2992</t>
+  </si>
+  <si>
+    <t>S2982</t>
+  </si>
+  <si>
+    <t>S2964</t>
+  </si>
+  <si>
+    <t>S2953</t>
+  </si>
+  <si>
+    <t>S3062</t>
+  </si>
+  <si>
+    <t>S3053</t>
+  </si>
+  <si>
+    <t>S3041</t>
+  </si>
+  <si>
+    <t>S3031</t>
+  </si>
+  <si>
+    <t>S3019</t>
+  </si>
+  <si>
+    <t>S3011</t>
+  </si>
+  <si>
+    <t>S3000</t>
+  </si>
+  <si>
+    <t>S2991</t>
+  </si>
+  <si>
+    <t>S2981</t>
+  </si>
+  <si>
+    <t>S2972</t>
+  </si>
+  <si>
+    <t>S2963</t>
+  </si>
+  <si>
+    <t>S2952</t>
+  </si>
+  <si>
+    <t>S3061</t>
+  </si>
+  <si>
+    <t>S3049</t>
+  </si>
+  <si>
+    <t>S3040</t>
+  </si>
+  <si>
+    <t>S3029</t>
+  </si>
+  <si>
+    <t>S3010</t>
+  </si>
+  <si>
+    <t>S2999</t>
+  </si>
+  <si>
+    <t>S2990</t>
+  </si>
+  <si>
+    <t>S2980</t>
+  </si>
+  <si>
+    <t>S2971</t>
+  </si>
+  <si>
+    <t>S2962</t>
+  </si>
+  <si>
+    <t>S2951</t>
+  </si>
+  <si>
+    <t>S3060</t>
+  </si>
+  <si>
+    <t>S3047</t>
+  </si>
+  <si>
+    <t>S3037</t>
+  </si>
+  <si>
+    <t>S3028</t>
+  </si>
+  <si>
+    <t>S3017</t>
+  </si>
+  <si>
+    <t>S3008</t>
+  </si>
+  <si>
+    <t>S2997</t>
+  </si>
+  <si>
+    <t>S2989</t>
+  </si>
+  <si>
+    <t>S2979</t>
+  </si>
+  <si>
+    <t>S2970</t>
+  </si>
+  <si>
+    <t>S2961</t>
+  </si>
+  <si>
+    <t>S2950</t>
   </si>
 </sst>
 </file>
@@ -711,12 +727,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -746,12 +762,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -957,17 +973,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -977,8 +993,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -989,10 +1008,10 @@
         <v>3000142914</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1003,10 +1022,10 @@
         <v>3000142914</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1017,10 +1036,10 @@
         <v>3000142914</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1031,10 +1050,10 @@
         <v>3000142914</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1045,10 +1064,10 @@
         <v>3000142914</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1059,10 +1078,10 @@
         <v>3000142914</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1073,10 +1092,10 @@
         <v>3000142914</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1087,10 +1106,10 @@
         <v>3000142914</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1101,10 +1120,10 @@
         <v>3000142914</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1115,10 +1134,10 @@
         <v>3000142914</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1129,10 +1148,10 @@
         <v>3000142914</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1143,10 +1162,10 @@
         <v>3000142914</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1157,10 +1176,10 @@
         <v>3000142914</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1171,10 +1190,10 @@
         <v>3000142914</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1185,10 +1204,10 @@
         <v>3000142914</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1199,10 +1218,10 @@
         <v>3000142914</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1213,10 +1232,10 @@
         <v>3000142914</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1227,10 +1246,10 @@
         <v>3000142914</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1241,10 +1260,10 @@
         <v>3000142914</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1255,10 +1274,10 @@
         <v>3000142914</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1269,10 +1288,10 @@
         <v>3000142914</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1283,10 +1302,10 @@
         <v>3000142914</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1297,10 +1316,10 @@
         <v>3000142914</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1311,10 +1330,10 @@
         <v>3000142914</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1325,10 +1344,10 @@
         <v>3000142914</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1339,10 +1358,10 @@
         <v>3000142914</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1353,10 +1372,10 @@
         <v>3000142914</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1367,10 +1386,10 @@
         <v>3000142914</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1381,10 +1400,10 @@
         <v>3000142914</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1395,10 +1414,10 @@
         <v>3000142914</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1409,10 +1428,10 @@
         <v>3000142914</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1423,10 +1442,10 @@
         <v>3000142914</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1437,10 +1456,10 @@
         <v>3000142914</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1451,10 +1470,10 @@
         <v>3000142914</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1465,10 +1484,10 @@
         <v>3000142914</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1479,10 +1498,10 @@
         <v>3000142914</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1493,10 +1512,10 @@
         <v>3000142914</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1507,10 +1526,10 @@
         <v>3000142914</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1521,10 +1540,10 @@
         <v>3000142914</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1535,10 +1554,10 @@
         <v>3000142914</v>
       </c>
       <c r="D41" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1549,10 +1568,10 @@
         <v>3000142914</v>
       </c>
       <c r="D42" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1563,10 +1582,10 @@
         <v>3000142914</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1577,10 +1596,10 @@
         <v>3000142914</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1591,10 +1610,10 @@
         <v>3000142914</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1605,10 +1624,10 @@
         <v>3000142914</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1619,10 +1638,10 @@
         <v>3000142914</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1633,10 +1652,10 @@
         <v>3000142914</v>
       </c>
       <c r="D48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1647,10 +1666,10 @@
         <v>3000142914</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1661,10 +1680,10 @@
         <v>3000142914</v>
       </c>
       <c r="D50" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1675,10 +1694,10 @@
         <v>3000142914</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1689,10 +1708,10 @@
         <v>3000142914</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1703,10 +1722,10 @@
         <v>3000142914</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1717,10 +1736,10 @@
         <v>3000142914</v>
       </c>
       <c r="D54" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1731,10 +1750,10 @@
         <v>3000142914</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1745,10 +1764,10 @@
         <v>3000142914</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1759,10 +1778,10 @@
         <v>3000142914</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1773,10 +1792,10 @@
         <v>3000142914</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1787,10 +1806,10 @@
         <v>3000142914</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1801,10 +1820,10 @@
         <v>3000142914</v>
       </c>
       <c r="D60" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1815,10 +1834,10 @@
         <v>3000142914</v>
       </c>
       <c r="D61" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1829,10 +1848,10 @@
         <v>3000142914</v>
       </c>
       <c r="D62" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1843,10 +1862,10 @@
         <v>3000142914</v>
       </c>
       <c r="D63" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1857,10 +1876,10 @@
         <v>3000142914</v>
       </c>
       <c r="D64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1871,10 +1890,10 @@
         <v>3000142914</v>
       </c>
       <c r="D65" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1885,10 +1904,10 @@
         <v>3000142914</v>
       </c>
       <c r="D66" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1899,10 +1918,10 @@
         <v>3000142914</v>
       </c>
       <c r="D67" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1913,10 +1932,10 @@
         <v>3000142914</v>
       </c>
       <c r="D68" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1927,10 +1946,10 @@
         <v>3000142914</v>
       </c>
       <c r="D69" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1941,10 +1960,10 @@
         <v>3000142914</v>
       </c>
       <c r="D70" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1955,10 +1974,10 @@
         <v>3000142914</v>
       </c>
       <c r="D71" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1969,10 +1988,10 @@
         <v>3000142914</v>
       </c>
       <c r="D72" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1983,10 +2002,10 @@
         <v>3000142914</v>
       </c>
       <c r="D73" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1997,10 +2016,10 @@
         <v>3000142914</v>
       </c>
       <c r="D74" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -2011,10 +2030,10 @@
         <v>3000142914</v>
       </c>
       <c r="D75" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -2025,10 +2044,10 @@
         <v>3000142914</v>
       </c>
       <c r="D76" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -2039,10 +2058,10 @@
         <v>3000142914</v>
       </c>
       <c r="D77" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -2053,10 +2072,10 @@
         <v>3000142914</v>
       </c>
       <c r="D78" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -2067,10 +2086,10 @@
         <v>3000142914</v>
       </c>
       <c r="D79" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -2081,10 +2100,10 @@
         <v>3000142914</v>
       </c>
       <c r="D80" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -2095,10 +2114,10 @@
         <v>3000142914</v>
       </c>
       <c r="D81" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -2109,10 +2128,10 @@
         <v>3000142914</v>
       </c>
       <c r="D82" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -2123,10 +2142,10 @@
         <v>3000142914</v>
       </c>
       <c r="D83" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -2137,10 +2156,10 @@
         <v>3000142914</v>
       </c>
       <c r="D84" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -2151,10 +2170,10 @@
         <v>3000142914</v>
       </c>
       <c r="D85" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -2165,10 +2184,10 @@
         <v>3000142914</v>
       </c>
       <c r="D86" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -2179,10 +2198,10 @@
         <v>3000142914</v>
       </c>
       <c r="D87" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -2193,10 +2212,10 @@
         <v>3000142914</v>
       </c>
       <c r="D88" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -2207,10 +2226,10 @@
         <v>3000142914</v>
       </c>
       <c r="D89" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -2221,10 +2240,10 @@
         <v>3000142914</v>
       </c>
       <c r="D90" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2235,10 +2254,10 @@
         <v>3000142914</v>
       </c>
       <c r="D91" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -2249,10 +2268,10 @@
         <v>3000142914</v>
       </c>
       <c r="D92" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -2263,10 +2282,10 @@
         <v>3000142914</v>
       </c>
       <c r="D93" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -2277,10 +2296,10 @@
         <v>3000142914</v>
       </c>
       <c r="D94" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2291,10 +2310,10 @@
         <v>3000142914</v>
       </c>
       <c r="D95" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -2305,10 +2324,10 @@
         <v>3000142914</v>
       </c>
       <c r="D96" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -2319,7 +2338,7 @@
         <v>3000142914</v>
       </c>
       <c r="D97" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2333,7 +2352,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2345,7 +2364,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
